--- a/Results/investments.xlsx
+++ b/Results/investments.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16828"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pratika\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vnsh\Documents\Self-Learning\Upgrad - IIITB\Investment Case Study\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Table -1.1" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Table-4.1" sheetId="5" r:id="rId4"/>
     <sheet name="Table-6.1" sheetId="1" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>C1</t>
   </si>
@@ -400,12 +400,63 @@
       </rPr>
       <t>  with? Enter a numeric value.</t>
     </r>
+  </si>
+  <si>
+    <t>permalink</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>Cleantech / Semiconductors</t>
+  </si>
+  <si>
+    <t>Social, Finance, Analytics, Advertising</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>News, Search and Messaging</t>
+  </si>
+  <si>
+    <t>Venture</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Tillster</t>
+  </si>
+  <si>
+    <t>Powerhouse Dynamics</t>
+  </si>
+  <si>
+    <t>Notonthehighstreet</t>
+  </si>
+  <si>
+    <t>Zopa</t>
+  </si>
+  <si>
+    <t>FirstCry.com</t>
+  </si>
+  <si>
+    <t>Manthan Systems</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -452,13 +503,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,6 +522,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -662,10 +713,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -703,27 +755,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -763,8 +803,22 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1079,8 +1133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:C9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,21 +1145,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="23"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
@@ -1122,52 +1176,62 @@
       <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="23">
+        <v>66368</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="23">
+        <v>66368</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>3</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="23" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>4</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="27"/>
+      <c r="C8" s="23" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>5</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="23">
+        <v>114949</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
+      <c r="B10" s="15"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
+      <c r="B11" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1191,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,14 +1267,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="36"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
     </row>
     <row r="3" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
@@ -1228,22 +1292,26 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="35">
+      <c r="A5" s="31">
         <v>1</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="36"/>
+      <c r="C5" s="32">
+        <v>19990</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37">
+      <c r="A6" s="33">
         <v>2</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="38"/>
+      <c r="C6" s="34">
+        <v>10426869</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="14"/>
@@ -1263,6 +1331,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1271,7 +1340,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1282,14 +1351,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
     </row>
     <row r="3" spans="1:3" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
@@ -1307,49 +1376,59 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+      <c r="A5" s="16">
         <v>1</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="16">
+        <v>11623493</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="16">
         <v>2</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="16">
+        <v>2875946</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="16">
         <v>3</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="16">
+        <v>2920791</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="16">
         <v>4</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="16">
+        <v>63704339</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+      <c r="A9" s="16">
         <v>5</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="16" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1375,7 +1454,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1386,14 +1465,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
     </row>
     <row r="3" spans="1:3" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
@@ -1417,7 +1496,9 @@
       <c r="B5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
@@ -1426,7 +1507,9 @@
       <c r="B6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -1435,7 +1518,9 @@
       <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1460,27 +1545,25 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E14"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="56.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="3" max="5" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="38"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
@@ -1490,128 +1573,188 @@
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="27" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
+      <c r="A5" s="28">
         <v>1</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="C5" s="23">
+        <v>14383</v>
+      </c>
+      <c r="D5" s="23">
+        <v>876</v>
+      </c>
+      <c r="E5" s="23">
+        <v>498</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+      <c r="A6" s="28">
         <v>2</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
+      <c r="C6" s="39">
+        <v>131814546739</v>
+      </c>
+      <c r="D6" s="39">
+        <v>8022707134</v>
+      </c>
+      <c r="E6" s="39">
+        <v>4728257650</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="32">
+      <c r="A7" s="28">
         <v>3</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="C7" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="32">
+      <c r="A8" s="28">
         <v>4</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+      <c r="C8" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="32">
+      <c r="A9" s="28">
         <v>5</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
+      <c r="C9" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
+      <c r="A10" s="28">
         <v>6</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
+      <c r="C10" s="23">
+        <v>3404</v>
+      </c>
+      <c r="D10" s="23">
+        <v>211</v>
+      </c>
+      <c r="E10" s="23">
+        <v>158</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="32">
+      <c r="A11" s="28">
         <v>7</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
+      <c r="C11" s="23">
+        <v>3290</v>
+      </c>
+      <c r="D11" s="23">
+        <v>193</v>
+      </c>
+      <c r="E11" s="23">
+        <v>106</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="32">
+      <c r="A12" s="28">
         <v>8</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
+      <c r="C12" s="23">
+        <v>2622</v>
+      </c>
+      <c r="D12" s="23">
+        <v>154</v>
+      </c>
+      <c r="E12" s="23">
+        <v>76</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
+      <c r="A13" s="28">
         <v>9</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
+      <c r="C13" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="32">
+      <c r="A14" s="28">
         <v>10</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
+      <c r="C14" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
